--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tâches</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Soutenance</t>
+  </si>
+  <si>
+    <t>Rédaction du rapport</t>
   </si>
 </sst>
 </file>
@@ -69,7 +72,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,6 +130,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -175,6 +184,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -635,6 +645,21 @@
       <c r="J10" s="2"/>
       <c r="K10" s="12"/>
     </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -468,7 +468,7 @@
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tâches</t>
   </si>
   <si>
-    <t>Licence sur le code ? Etude &gt; proposition &gt; décision</t>
-  </si>
-  <si>
-    <t>Mise en place des tests (unitaires, non régression, globaux)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Visuel du site web </t>
   </si>
   <si>
@@ -50,13 +44,43 @@
   </si>
   <si>
     <t>Rédaction du rapport</t>
+  </si>
+  <si>
+    <t>Tâches Générales</t>
+  </si>
+  <si>
+    <t>Etudes licence sur le code</t>
+  </si>
+  <si>
+    <t>Proposition licence/ decision</t>
+  </si>
+  <si>
+    <t>Qualité</t>
+  </si>
+  <si>
+    <t>tests unitaires</t>
+  </si>
+  <si>
+    <t>tests globaux</t>
+  </si>
+  <si>
+    <t>tests de non-regression</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>réseaux sociaux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A la demande </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,25 +95,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -99,31 +127,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -136,6 +140,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -167,24 +189,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,53 +492,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="51.6328125" customWidth="1"/>
-    <col min="2" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B1" s="13">
+    <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="7">
         <v>42743</v>
       </c>
-      <c r="C1" s="13">
+      <c r="C1" s="7">
         <v>42744</v>
       </c>
-      <c r="D1" s="13">
+      <c r="D1" s="7">
         <v>42745</v>
       </c>
-      <c r="E1" s="13">
+      <c r="E1" s="7">
         <v>42746</v>
       </c>
-      <c r="F1" s="13">
+      <c r="F1" s="7">
         <v>42747</v>
       </c>
-      <c r="G1" s="13">
+      <c r="G1" s="7">
         <v>42750</v>
       </c>
-      <c r="H1" s="13">
+      <c r="H1" s="7">
         <v>42751</v>
       </c>
-      <c r="I1" s="13">
+      <c r="I1" s="7">
         <v>42752</v>
       </c>
-      <c r="J1" s="13">
+      <c r="J1" s="7">
         <v>42753</v>
       </c>
-      <c r="K1" s="13">
+      <c r="K1" s="7">
         <v>42754</v>
       </c>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
@@ -526,11 +554,11 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
+      <c r="A3" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -542,11 +570,11 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -557,67 +585,67 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
+      <c r="A9" s="10" t="s">
+        <v>11</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -626,39 +654,159 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="12"/>
+      <c r="K10" s="3"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Planning.xlsx
+++ b/Planning.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Prévisionnel" sheetId="1" r:id="rId1"/>
+    <sheet name="Réel" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr autoRecover="0"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
   <si>
     <t>Tâches</t>
   </si>
@@ -112,7 +113,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +129,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -189,14 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,14 +198,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +221,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>10584</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>413298</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{535BB2E6-91BA-4C03-9383-6797E686B07E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15515167" y="1026584"/>
+          <a:ext cx="4085714" cy="3009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A9" sqref="A1:K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -506,40 +549,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="7">
+      <c r="B1" s="6">
         <v>42743</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="6">
         <v>42744</v>
       </c>
-      <c r="D1" s="7">
+      <c r="D1" s="6">
         <v>42745</v>
       </c>
-      <c r="E1" s="7">
+      <c r="E1" s="6">
         <v>42746</v>
       </c>
-      <c r="F1" s="7">
+      <c r="F1" s="6">
         <v>42747</v>
       </c>
-      <c r="G1" s="7">
+      <c r="G1" s="6">
         <v>42750</v>
       </c>
-      <c r="H1" s="7">
+      <c r="H1" s="6">
         <v>42751</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>42752</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>42753</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="6">
         <v>42754</v>
       </c>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2"/>
@@ -554,7 +597,7 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2"/>
@@ -644,7 +687,7 @@
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2"/>
@@ -664,10 +707,10 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -681,9 +724,9 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="3"/>
@@ -696,15 +739,15 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2"/>
@@ -727,10 +770,10 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -742,10 +785,10 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -759,23 +802,23 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -797,19 +840,341 @@
       <c r="A19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C87021D8-21AC-42C5-8D3E-EC5D8583D3D8}">
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="11" width="13.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="6">
+        <v>42743</v>
+      </c>
+      <c r="C1" s="6">
+        <v>42744</v>
+      </c>
+      <c r="D1" s="6">
+        <v>42745</v>
+      </c>
+      <c r="E1" s="6">
+        <v>42746</v>
+      </c>
+      <c r="F1" s="6">
+        <v>42747</v>
+      </c>
+      <c r="G1" s="6">
+        <v>42750</v>
+      </c>
+      <c r="H1" s="6">
+        <v>42751</v>
+      </c>
+      <c r="I1" s="6">
+        <v>42752</v>
+      </c>
+      <c r="J1" s="6">
+        <v>42753</v>
+      </c>
+      <c r="K1" s="6">
+        <v>42754</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="5"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>